--- a/meta/17-18-2.xlsx
+++ b/meta/17-18-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -100,22 +100,7 @@
     <t xml:space="preserve">17.18 К 2020 году усилить поддержку в целях наращивания потенциала развивающихся стран, в том числе наименее развитых стран и малых островных развивающихся государств, с тем чтобы значительно повысить доступность высококачественных, актуальных и достоверных данных, дезагрегированных по уровню доходов, гендерной принадлежности, возрасту, расе, национальности, миграционному статусу, инвалидности, географическому местонахождению и другим характеристикам, значимым с учетом национальных условий </t>
   </si>
   <si>
-    <t xml:space="preserve">17.18.2 Число, стран, имеющих национальное статистическое законодательство, соответствующее Основополагающим принципам официальной статистики </t>
-  </si>
-  <si>
-    <t>Национальный статистический комитет Кыргызской Республики (Отдел организации и координации статистики)</t>
-  </si>
-  <si>
-    <t>Ермекбаева Г.Б.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">germekbaeva@stat.kg </t>
-  </si>
-  <si>
     <t>(312) 62-56-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.stat.kg </t>
   </si>
   <si>
     <t>Национальное статистическое законодательство: Закон о статистике определяет правила, регуляции, меры в отношении организации, управления, мониторинга и инспекции статистической деятельности на систематической основе, силе, эффективности и оперативности для обеспечения полного охвата, точности и для обеспечения полного охвата, точности и согласованности с фактами, с тем, чтобы дать ссылку на направление политики, социально-экономическое планирование и внести вклад в развитие страны для достижения благосостояния, культуры, благосостояния и справедливости.
@@ -138,17 +123,40 @@
     <t> Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io
  Ссылка на закон Об официальной статистике Кыргыской Республике: http://www.stat.kg/ru/about/pravovye-osnovy-organov-gosudarstvennoj-statistiki/</t>
   </si>
+  <si>
+    <t xml:space="preserve">17.18.2 Число стран, имеющих национальное статистическое законодательство, соответствующее Основополагающим принципам официальной статистики </t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.stat.gov.kg </t>
+  </si>
+  <si>
+    <t>Национальный статистический комитет Кыргызской Республики (Управление стратегического планирования и оптимизации бизнес-прцессов)</t>
+  </si>
+  <si>
+    <t>Абдуллаева Г.Т.</t>
+  </si>
+  <si>
+    <t>gabdullaeva@stat.kg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,25 +223,33 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -546,7 +562,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +599,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,16 +612,16 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
+      <c r="B6" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
+      <c r="B7" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -613,22 +629,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
+      <c r="B9" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -649,7 +665,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -711,7 +727,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -731,7 +747,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
